--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,25 @@
   </si>
   <si>
     <t>标书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -434,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +472,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,8 +486,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,8 +500,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -485,8 +514,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -496,8 +528,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -506,6 +541,9 @@
       </c>
       <c r="C6" t="s">
         <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="1920" yWindow="20" windowWidth="25600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7-8</t>
+    <t>2018-7-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="20" windowWidth="25600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="9320" yWindow="3800" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,30 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>何龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>君凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22222222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标书号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,18 +37,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7-21</t>
-  </si>
-  <si>
-    <t>2018-7-21</t>
+    <t>99999901</t>
+  </si>
+  <si>
+    <t>99999902</t>
+  </si>
+  <si>
+    <t>99999903</t>
+  </si>
+  <si>
+    <t>99999904</t>
+  </si>
+  <si>
+    <t>99999905</t>
+  </si>
+  <si>
+    <t>99999906</t>
+  </si>
+  <si>
+    <t>99999907</t>
+  </si>
+  <si>
+    <t>99999908</t>
+  </si>
+  <si>
+    <t>99999909</t>
+  </si>
+  <si>
+    <t>99999910</t>
+  </si>
+  <si>
+    <t>99999911</t>
+  </si>
+  <si>
+    <t>99999912</t>
+  </si>
+  <si>
+    <t>99999913</t>
+  </si>
+  <si>
+    <t>99999914</t>
+  </si>
+  <si>
+    <t>99999915</t>
+  </si>
+  <si>
+    <t>99999916</t>
+  </si>
+  <si>
+    <t>99999917</t>
+  </si>
+  <si>
+    <t>99999918</t>
+  </si>
+  <si>
+    <t>99999919</t>
+  </si>
+  <si>
+    <t>99999920</t>
+  </si>
+  <si>
+    <t>99999921</t>
+  </si>
+  <si>
+    <t>99999922</t>
+  </si>
+  <si>
+    <t>99999923</t>
+  </si>
+  <si>
+    <t>99999924</t>
+  </si>
+  <si>
+    <t>99999925</t>
+  </si>
+  <si>
+    <t>99999926</t>
+  </si>
+  <si>
+    <t>99999927</t>
+  </si>
+  <si>
+    <t>99999928</t>
+  </si>
+  <si>
+    <t>99999929</t>
+  </si>
+  <si>
+    <t>99999930</t>
+  </si>
+  <si>
+    <t>99999931</t>
+  </si>
+  <si>
+    <t>99999932</t>
+  </si>
+  <si>
+    <t>99999933</t>
+  </si>
+  <si>
+    <t>99999934</t>
+  </si>
+  <si>
+    <t>99999935</t>
+  </si>
+  <si>
+    <t>99999936</t>
+  </si>
+  <si>
+    <t>99999937</t>
+  </si>
+  <si>
+    <t>99999938</t>
+  </si>
+  <si>
+    <t>99999939</t>
+  </si>
+  <si>
+    <t>99999940</t>
+  </si>
+  <si>
+    <t>何1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7-21</t>
+    <t>何2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-7-9</t>
+    <t>何3</t>
+  </si>
+  <si>
+    <t>何4</t>
+  </si>
+  <si>
+    <t>何5</t>
+  </si>
+  <si>
+    <t>何6</t>
+  </si>
+  <si>
+    <t>何7</t>
+  </si>
+  <si>
+    <t>何8</t>
+  </si>
+  <si>
+    <t>何9</t>
+  </si>
+  <si>
+    <t>何10</t>
+  </si>
+  <si>
+    <t>何11</t>
+  </si>
+  <si>
+    <t>何12</t>
+  </si>
+  <si>
+    <t>何13</t>
+  </si>
+  <si>
+    <t>何14</t>
+  </si>
+  <si>
+    <t>何15</t>
+  </si>
+  <si>
+    <t>何16</t>
+  </si>
+  <si>
+    <t>何17</t>
+  </si>
+  <si>
+    <t>何18</t>
+  </si>
+  <si>
+    <t>何19</t>
+  </si>
+  <si>
+    <t>何20</t>
+  </si>
+  <si>
+    <t>何21</t>
+  </si>
+  <si>
+    <t>何22</t>
+  </si>
+  <si>
+    <t>何23</t>
+  </si>
+  <si>
+    <t>何24</t>
+  </si>
+  <si>
+    <t>何25</t>
+  </si>
+  <si>
+    <t>何26</t>
+  </si>
+  <si>
+    <t>何27</t>
+  </si>
+  <si>
+    <t>何28</t>
+  </si>
+  <si>
+    <t>何29</t>
+  </si>
+  <si>
+    <t>何30</t>
+  </si>
+  <si>
+    <t>何31</t>
+  </si>
+  <si>
+    <t>何32</t>
+  </si>
+  <si>
+    <t>何33</t>
+  </si>
+  <si>
+    <t>何34</t>
+  </si>
+  <si>
+    <t>何35</t>
+  </si>
+  <si>
+    <t>何36</t>
+  </si>
+  <si>
+    <t>何37</t>
+  </si>
+  <si>
+    <t>何38</t>
+  </si>
+  <si>
+    <t>何39</t>
+  </si>
+  <si>
+    <t>何40</t>
+  </si>
+  <si>
+    <t>2018-7-10</t>
+  </si>
+  <si>
+    <t>2018-7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +307,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -119,10 +341,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -454,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -467,83 +689,573 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>11111111</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>33333333</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44444444</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>55555555</v>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="3800" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>2018-7-10</t>
+  </si>
+  <si>
+    <t>2018-7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018-7-10</t>
@@ -679,7 +683,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -975,7 +979,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,126 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99999901</t>
-  </si>
-  <si>
-    <t>99999902</t>
-  </si>
-  <si>
-    <t>99999903</t>
-  </si>
-  <si>
-    <t>99999904</t>
-  </si>
-  <si>
-    <t>99999905</t>
-  </si>
-  <si>
-    <t>99999906</t>
-  </si>
-  <si>
-    <t>99999907</t>
-  </si>
-  <si>
-    <t>99999908</t>
-  </si>
-  <si>
-    <t>99999909</t>
-  </si>
-  <si>
-    <t>99999910</t>
-  </si>
-  <si>
-    <t>99999911</t>
-  </si>
-  <si>
-    <t>99999912</t>
-  </si>
-  <si>
-    <t>99999913</t>
-  </si>
-  <si>
-    <t>99999914</t>
-  </si>
-  <si>
-    <t>99999915</t>
-  </si>
-  <si>
-    <t>99999916</t>
-  </si>
-  <si>
-    <t>99999917</t>
-  </si>
-  <si>
-    <t>99999918</t>
-  </si>
-  <si>
-    <t>99999919</t>
-  </si>
-  <si>
-    <t>99999920</t>
-  </si>
-  <si>
-    <t>99999921</t>
-  </si>
-  <si>
-    <t>99999922</t>
-  </si>
-  <si>
-    <t>99999923</t>
-  </si>
-  <si>
-    <t>99999924</t>
-  </si>
-  <si>
-    <t>99999925</t>
-  </si>
-  <si>
-    <t>99999926</t>
-  </si>
-  <si>
-    <t>99999927</t>
-  </si>
-  <si>
-    <t>99999928</t>
-  </si>
-  <si>
-    <t>99999929</t>
-  </si>
-  <si>
-    <t>99999930</t>
-  </si>
-  <si>
-    <t>99999931</t>
-  </si>
-  <si>
-    <t>99999932</t>
-  </si>
-  <si>
-    <t>99999933</t>
-  </si>
-  <si>
-    <t>99999934</t>
-  </si>
-  <si>
-    <t>99999935</t>
-  </si>
-  <si>
-    <t>99999936</t>
-  </si>
-  <si>
-    <t>99999937</t>
-  </si>
-  <si>
-    <t>99999938</t>
-  </si>
-  <si>
-    <t>99999939</t>
-  </si>
-  <si>
-    <t>99999940</t>
-  </si>
-  <si>
     <t>何1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,24 +141,6 @@
     <t>何34</t>
   </si>
   <si>
-    <t>何35</t>
-  </si>
-  <si>
-    <t>何36</t>
-  </si>
-  <si>
-    <t>何37</t>
-  </si>
-  <si>
-    <t>何38</t>
-  </si>
-  <si>
-    <t>何39</t>
-  </si>
-  <si>
-    <t>何40</t>
-  </si>
-  <si>
     <t>2018-7-10</t>
   </si>
   <si>
@@ -292,6 +154,108 @@
   <si>
     <t>2018-7-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54801061</t>
+  </si>
+  <si>
+    <t>54713450</t>
+  </si>
+  <si>
+    <t>54892189</t>
+  </si>
+  <si>
+    <t>54901243</t>
+  </si>
+  <si>
+    <t>54881000</t>
+  </si>
+  <si>
+    <t>55084907</t>
+  </si>
+  <si>
+    <t>54718801</t>
+  </si>
+  <si>
+    <t>54843504</t>
+  </si>
+  <si>
+    <t>54874968</t>
+  </si>
+  <si>
+    <t>54761365</t>
+  </si>
+  <si>
+    <t>55014771</t>
+  </si>
+  <si>
+    <t>55093633</t>
+  </si>
+  <si>
+    <t>54842242</t>
+  </si>
+  <si>
+    <t>54941594</t>
+  </si>
+  <si>
+    <t>54932494</t>
+  </si>
+  <si>
+    <t>54916346</t>
+  </si>
+  <si>
+    <t>54944729</t>
+  </si>
+  <si>
+    <t>54784658</t>
+  </si>
+  <si>
+    <t>55021636</t>
+  </si>
+  <si>
+    <t>54883639</t>
+  </si>
+  <si>
+    <t>54988437</t>
+  </si>
+  <si>
+    <t>54948574</t>
+  </si>
+  <si>
+    <t>54992627</t>
+  </si>
+  <si>
+    <t>55096187</t>
+  </si>
+  <si>
+    <t>55096928</t>
+  </si>
+  <si>
+    <t>54829631</t>
+  </si>
+  <si>
+    <t>55076833</t>
+  </si>
+  <si>
+    <t>54910528</t>
+  </si>
+  <si>
+    <t>54810215</t>
+  </si>
+  <si>
+    <t>54769349</t>
+  </si>
+  <si>
+    <t>54901178</t>
+  </si>
+  <si>
+    <t>54969350</t>
+  </si>
+  <si>
+    <t>54845074</t>
+  </si>
+  <si>
+    <t>54717311</t>
   </si>
 </sst>
 </file>
@@ -343,10 +307,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -683,7 +650,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -706,561 +673,501 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B37" s="2"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="12040" yWindow="600" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,317 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54801061</t>
+  </si>
+  <si>
+    <t>54713450</t>
+  </si>
+  <si>
+    <t>54892189</t>
+  </si>
+  <si>
+    <t>54901243</t>
+  </si>
+  <si>
+    <t>54881000</t>
+  </si>
+  <si>
+    <t>55084907</t>
+  </si>
+  <si>
+    <t>54718801</t>
+  </si>
+  <si>
+    <t>54843504</t>
+  </si>
+  <si>
+    <t>54874968</t>
+  </si>
+  <si>
+    <t>54761365</t>
+  </si>
+  <si>
+    <t>55014771</t>
+  </si>
+  <si>
+    <t>55093633</t>
+  </si>
+  <si>
+    <t>54842242</t>
+  </si>
+  <si>
+    <t>54941594</t>
+  </si>
+  <si>
+    <t>54932494</t>
+  </si>
+  <si>
+    <t>54916346</t>
+  </si>
+  <si>
+    <t>54944729</t>
+  </si>
+  <si>
+    <t>54784658</t>
+  </si>
+  <si>
+    <t>55021636</t>
+  </si>
+  <si>
+    <t>54883639</t>
+  </si>
+  <si>
+    <t>54988437</t>
+  </si>
+  <si>
+    <t>54948574</t>
+  </si>
+  <si>
+    <t>54992627</t>
+  </si>
+  <si>
+    <t>55096187</t>
+  </si>
+  <si>
+    <t>55096928</t>
+  </si>
+  <si>
+    <t>54829631</t>
+  </si>
+  <si>
+    <t>55076833</t>
+  </si>
+  <si>
+    <t>54910528</t>
+  </si>
+  <si>
+    <t>54810215</t>
+  </si>
+  <si>
+    <t>54769349</t>
+  </si>
+  <si>
+    <t>54901178</t>
+  </si>
+  <si>
+    <t>54969350</t>
+  </si>
+  <si>
+    <t>54845074</t>
+  </si>
+  <si>
+    <t>54717311</t>
+  </si>
+  <si>
+    <t>标书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54991848</t>
+  </si>
+  <si>
+    <t>55013170</t>
+  </si>
+  <si>
+    <t>54854669</t>
+  </si>
+  <si>
+    <t>54912629</t>
+  </si>
+  <si>
+    <t>54975789</t>
+  </si>
+  <si>
+    <t>54978281</t>
+  </si>
+  <si>
+    <t>54902435</t>
+  </si>
+  <si>
+    <t>54935613</t>
+  </si>
+  <si>
+    <t>55099697</t>
+  </si>
+  <si>
+    <t>55009792</t>
+  </si>
+  <si>
+    <t>54917357</t>
+  </si>
+  <si>
+    <t>54911176</t>
+  </si>
+  <si>
+    <t>54995785</t>
+  </si>
+  <si>
+    <t>54985219</t>
+  </si>
+  <si>
+    <t>54859485</t>
+  </si>
+  <si>
+    <t>54710419</t>
+  </si>
+  <si>
+    <t>55044018</t>
+  </si>
+  <si>
+    <t>54871596</t>
+  </si>
+  <si>
+    <t>54891636</t>
+  </si>
+  <si>
+    <t>54952307</t>
+  </si>
+  <si>
+    <t>2018-7-20</t>
+  </si>
+  <si>
+    <t>2018-7-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>拍手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标书号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
+    <t>拍1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍3</t>
+  </si>
+  <si>
+    <t>拍4</t>
+  </si>
+  <si>
+    <t>拍5</t>
+  </si>
+  <si>
+    <t>拍6</t>
+  </si>
+  <si>
+    <t>拍7</t>
+  </si>
+  <si>
+    <t>拍8</t>
+  </si>
+  <si>
+    <t>拍9</t>
+  </si>
+  <si>
+    <t>拍10</t>
+  </si>
+  <si>
+    <t>拍11</t>
+  </si>
+  <si>
+    <t>拍12</t>
+  </si>
+  <si>
+    <t>拍13</t>
+  </si>
+  <si>
+    <t>拍14</t>
+  </si>
+  <si>
+    <t>拍15</t>
+  </si>
+  <si>
+    <t>拍16</t>
+  </si>
+  <si>
+    <t>拍17</t>
+  </si>
+  <si>
+    <t>拍18</t>
+  </si>
+  <si>
+    <t>拍19</t>
+  </si>
+  <si>
+    <t>拍20</t>
+  </si>
+  <si>
+    <t>拍21</t>
+  </si>
+  <si>
+    <t>拍22</t>
+  </si>
+  <si>
+    <t>拍23</t>
+  </si>
+  <si>
+    <t>拍24</t>
+  </si>
+  <si>
+    <t>拍25</t>
+  </si>
+  <si>
+    <t>拍26</t>
+  </si>
+  <si>
+    <t>拍27</t>
+  </si>
+  <si>
+    <t>拍28</t>
+  </si>
+  <si>
+    <t>拍29</t>
+  </si>
+  <si>
+    <t>拍30</t>
+  </si>
+  <si>
+    <t>拍31</t>
+  </si>
+  <si>
+    <t>拍32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀文2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,223 +342,38 @@
   </si>
   <si>
     <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>何4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>何6</t>
-  </si>
-  <si>
-    <t>何7</t>
-  </si>
-  <si>
-    <t>何8</t>
-  </si>
-  <si>
-    <t>何9</t>
-  </si>
-  <si>
-    <t>何10</t>
-  </si>
-  <si>
-    <t>何11</t>
-  </si>
-  <si>
-    <t>何12</t>
-  </si>
-  <si>
-    <t>何13</t>
-  </si>
-  <si>
-    <t>何14</t>
-  </si>
-  <si>
-    <t>何15</t>
-  </si>
-  <si>
-    <t>何16</t>
-  </si>
-  <si>
-    <t>何17</t>
-  </si>
-  <si>
-    <t>何18</t>
-  </si>
-  <si>
-    <t>何19</t>
-  </si>
-  <si>
-    <t>何20</t>
-  </si>
-  <si>
-    <t>何21</t>
-  </si>
-  <si>
-    <t>何22</t>
-  </si>
-  <si>
-    <t>何23</t>
-  </si>
-  <si>
-    <t>何24</t>
-  </si>
-  <si>
-    <t>何25</t>
-  </si>
-  <si>
-    <t>何26</t>
-  </si>
-  <si>
-    <t>何27</t>
-  </si>
-  <si>
-    <t>何28</t>
-  </si>
-  <si>
-    <t>何29</t>
-  </si>
-  <si>
-    <t>何30</t>
-  </si>
-  <si>
-    <t>何31</t>
-  </si>
-  <si>
-    <t>何32</t>
-  </si>
-  <si>
-    <t>何33</t>
-  </si>
-  <si>
-    <t>何34</t>
-  </si>
-  <si>
-    <t>2018-7-10</t>
-  </si>
-  <si>
-    <t>2018-7-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-7-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-7-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54801061</t>
-  </si>
-  <si>
-    <t>54713450</t>
-  </si>
-  <si>
-    <t>54892189</t>
-  </si>
-  <si>
-    <t>54901243</t>
-  </si>
-  <si>
-    <t>54881000</t>
-  </si>
-  <si>
-    <t>55084907</t>
-  </si>
-  <si>
-    <t>54718801</t>
-  </si>
-  <si>
-    <t>54843504</t>
-  </si>
-  <si>
-    <t>54874968</t>
-  </si>
-  <si>
-    <t>54761365</t>
-  </si>
-  <si>
-    <t>55014771</t>
-  </si>
-  <si>
-    <t>55093633</t>
-  </si>
-  <si>
-    <t>54842242</t>
-  </si>
-  <si>
-    <t>54941594</t>
-  </si>
-  <si>
-    <t>54932494</t>
-  </si>
-  <si>
-    <t>54916346</t>
-  </si>
-  <si>
-    <t>54944729</t>
-  </si>
-  <si>
-    <t>54784658</t>
-  </si>
-  <si>
-    <t>55021636</t>
-  </si>
-  <si>
-    <t>54883639</t>
-  </si>
-  <si>
-    <t>54988437</t>
-  </si>
-  <si>
-    <t>54948574</t>
-  </si>
-  <si>
-    <t>54992627</t>
-  </si>
-  <si>
-    <t>55096187</t>
-  </si>
-  <si>
-    <t>55096928</t>
-  </si>
-  <si>
-    <t>54829631</t>
-  </si>
-  <si>
-    <t>55076833</t>
-  </si>
-  <si>
-    <t>54910528</t>
-  </si>
-  <si>
-    <t>54810215</t>
-  </si>
-  <si>
-    <t>54769349</t>
-  </si>
-  <si>
-    <t>54901178</t>
-  </si>
-  <si>
-    <t>54969350</t>
-  </si>
-  <si>
-    <t>54845074</t>
-  </si>
-  <si>
-    <t>54717311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,23 +390,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -303,21 +507,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="常规 7" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,26 +931,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="20"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -674,13 +962,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -688,13 +976,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -702,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -716,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -730,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -744,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -758,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -772,13 +1060,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -786,13 +1074,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -800,378 +1088,733 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="B31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="2"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="2"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="2"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="B39" s="2"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="2"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="B41" s="2"/>
-      <c r="D41" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8">
+        <v>54701863</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9">
+        <v>55014660</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10">
+        <v>54858186</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10">
+        <v>54932403</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10">
+        <v>55049993</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11">
+        <v>54857526</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>55046375</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="33400" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -131,13 +131,6 @@
     <t>54952307</t>
   </si>
   <si>
-    <t>2018-7-20</t>
-  </si>
-  <si>
-    <t>2018-7-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>54801061</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +293,6 @@
     <t>朱银婷</t>
   </si>
   <si>
-    <t>杨星1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>54769349</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,19 +373,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨星2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星5</t>
+    <t>2018-7-21</t>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,11 +537,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -607,14 +611,18 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="常规 7" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -946,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -961,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -975,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -989,13 +997,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1003,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1017,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1031,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1045,13 +1053,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1059,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1073,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1087,13 +1095,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1101,13 +1109,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1115,13 +1123,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1129,13 +1137,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1143,13 +1151,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1157,13 +1165,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1171,13 +1179,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1185,13 +1193,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1199,13 +1207,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1213,13 +1221,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1227,13 +1235,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1241,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1255,13 +1263,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1269,13 +1277,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1283,13 +1291,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1297,13 +1305,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1311,13 +1319,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1325,13 +1333,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1339,13 +1347,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1353,13 +1361,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1367,13 +1375,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1381,13 +1389,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1395,13 +1403,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1409,13 +1417,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1423,13 +1431,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1437,13 +1445,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1454,10 +1462,10 @@
         <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1468,10 +1476,10 @@
         <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1482,10 +1490,10 @@
         <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1496,10 +1504,10 @@
         <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1507,13 +1515,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1521,13 +1529,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1535,13 +1543,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1549,13 +1557,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1563,13 +1571,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1577,13 +1585,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1591,13 +1599,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C46" s="17">
         <v>54701863</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1605,13 +1613,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" s="18">
         <v>55014660</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1619,13 +1627,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" s="19">
         <v>54858186</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1633,13 +1641,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" s="19">
         <v>54932403</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1647,13 +1655,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C50" s="19">
         <v>55049993</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1661,13 +1669,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3">
         <v>54857526</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1675,13 +1683,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3">
         <v>55046375</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1689,13 +1697,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1703,13 +1711,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1717,13 +1725,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1731,13 +1739,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_record.xlsx
+++ b/init/create_record.xlsx
@@ -131,280 +131,266 @@
     <t>54952307</t>
   </si>
   <si>
+    <t>拍手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖承剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周寅杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆跃宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡鑫玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶天颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜贤波</t>
+  </si>
+  <si>
+    <t>刘旭光</t>
+  </si>
+  <si>
+    <t>孙亚龙</t>
+  </si>
+  <si>
+    <t>陈树</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>赵建升</t>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>顾玉江</t>
+  </si>
+  <si>
+    <t>李念鸿</t>
+  </si>
+  <si>
+    <t>雷笑笑</t>
+  </si>
+  <si>
+    <t>陈艺鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦罗佳</t>
+  </si>
+  <si>
+    <t>陈宾</t>
+  </si>
+  <si>
+    <t>吴迪</t>
+  </si>
+  <si>
+    <t>朱银婷</t>
+  </si>
+  <si>
+    <t>张秀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周寅杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆跃宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+  </si>
+  <si>
+    <t>2018-7-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>54801061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54713450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54892189</t>
   </si>
   <si>
     <t>54901243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54881000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55084907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54718801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54843504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54874968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标书号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖承剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54892189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢寅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周寅杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆跃宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡鑫玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶天颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王小艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴佳乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜贤波</t>
-  </si>
-  <si>
-    <t>刘旭光</t>
-  </si>
-  <si>
-    <t>孙亚龙</t>
-  </si>
-  <si>
-    <t>陈树</t>
-  </si>
-  <si>
-    <t>张博</t>
-  </si>
-  <si>
-    <t>赵建升</t>
-  </si>
-  <si>
-    <t>陈斌</t>
-  </si>
-  <si>
-    <t>顾玉江</t>
-  </si>
-  <si>
-    <t>李念鸿</t>
-  </si>
-  <si>
-    <t>雷笑笑</t>
-  </si>
-  <si>
-    <t>陈艺鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦罗佳</t>
-  </si>
-  <si>
-    <t>陈宾</t>
-  </si>
-  <si>
-    <t>吴迪</t>
-  </si>
-  <si>
-    <t>朱银婷</t>
   </si>
   <si>
     <t>54769349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54991848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>55013170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54854669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54912629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秀文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢寅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周寅杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆跃宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-7-21</t>
-  </si>
-  <si>
-    <t>2018-7-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,13 +431,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +503,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -553,7 +562,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -571,9 +580,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,25 +595,40 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,14 +975,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="4"/>
-    <col min="3" max="3" width="13.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -969,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -982,462 +1003,462 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>39</v>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1445,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1459,13 +1480,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1473,13 +1494,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1487,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1501,13 +1522,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1515,41 +1536,41 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>31</v>
+      <c r="B41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>32</v>
+      <c r="B42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1557,13 +1578,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1571,13 +1592,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1585,13 +1606,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1599,13 +1620,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="17">
-        <v>54701863</v>
+        <v>74</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1613,13 +1634,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="18">
-        <v>55014660</v>
+        <v>75</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1627,13 +1648,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="19">
-        <v>54858186</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1641,13 +1662,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="19">
-        <v>54932403</v>
+        <v>77</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1655,13 +1676,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C50" s="19">
-        <v>55049993</v>
+        <v>54701863</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1669,13 +1690,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="3">
-        <v>54857526</v>
+        <v>79</v>
+      </c>
+      <c r="C51" s="20">
+        <v>55014660</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1683,69 +1704,69 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="3">
-        <v>55046375</v>
+        <v>80</v>
+      </c>
+      <c r="C52" s="21">
+        <v>54858186</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>27</v>
+      <c r="B53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="21">
+        <v>54932403</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>28</v>
+      <c r="B54" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="21">
+        <v>55049993</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>29</v>
+      <c r="B55" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="22">
+        <v>54857526</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>30</v>
+      <c r="B56" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="22">
+        <v>55046375</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
